--- a/data/374500/benchmark/Neo4J.xlsx
+++ b/data/374500/benchmark/Neo4J.xlsx
@@ -448,436 +448,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -923,436 +923,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1398,436 +1398,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1873,38 +1873,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1915,16 +1915,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1946,18 +1946,18 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1991,15 +1991,15 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2008,18 +2008,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2083,16 +2083,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2114,27 +2114,27 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -2260,21 +2260,21 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2296,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/374500/benchmark/Neo4J.xlsx
+++ b/data/374500/benchmark/Neo4J.xlsx
@@ -448,436 +448,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -923,436 +923,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1398,436 +1398,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1873,436 +1873,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/374500/benchmark/Neo4J.xlsx
+++ b/data/374500/benchmark/Neo4J.xlsx
@@ -448,436 +448,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -923,436 +923,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1398,436 +1398,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1873,436 +1873,436 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>163</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/374500/benchmark/Neo4J.xlsx
+++ b/data/374500/benchmark/Neo4J.xlsx
@@ -448,30 +448,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -482,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -496,38 +496,38 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -538,24 +538,24 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -566,15 +566,15 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -608,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -633,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -650,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -661,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -734,21 +734,21 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -756,30 +756,30 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -790,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -846,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -857,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -923,16 +923,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D2" t="n">
         <v>15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -943,63 +943,63 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1010,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1038,24 +1038,24 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1220,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1234,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1251,24 +1251,24 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1276,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1293,24 +1293,24 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1321,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1332,27 +1332,27 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1398,16 +1398,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1418,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1432,24 +1432,24 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1474,38 +1474,38 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1513,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1530,29 +1530,29 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1561,18 +1561,18 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1583,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1597,27 +1597,27 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1653,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1684,38 +1684,38 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1723,27 +1723,27 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1754,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1768,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1782,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1893,24 +1893,24 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1918,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1932,41 +1932,41 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1977,38 +1977,38 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2016,10 +2016,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -2027,44 +2027,44 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2075,52 +2075,52 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
         <v>4</v>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2128,24 +2128,24 @@
         <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -2156,13 +2156,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2170,13 +2170,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2187,38 +2187,38 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2226,13 +2226,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2240,13 +2240,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2257,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2268,38 +2268,38 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
